--- a/20-excel-based/210-models/070-taxonomy-model.xlsx
+++ b/20-excel-based/210-models/070-taxonomy-model.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prket\IKEA Work\Data Distribution Release\feature_BERIKA_3.2\rs-pim-mdm\src\20-excel-based\210-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddh\Downloads\PMIeTron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5BA5F-C50B-491A-B8A4-B86A1E41338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC810ED4-7951-49EC-A69F-14AA4910971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="990" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dropdownlist" sheetId="8" state="hidden" r:id="rId1"/>
@@ -29,27 +29,27 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">ATTRIBUTES!$A$1:$AL$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">ATTRIBUTES!$A$1:$AV$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'ATTRIBUTES LOCALE'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CATEGORIES!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CATEGORIES!$A$1:$G$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'CATEGORIES LOCALE'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9">'CATEGORY MODEL'!$A$1:$AB$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TAXONOMIES!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'CATEGORY MODEL'!$A$1:$AO$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TAXONOMIES!$A$1:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'TAXONOMIES LOCALE'!$A$1:$E$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">CATEGORIES!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AE$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">CATEGORIES!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AE$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">CATEGORIES!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AE$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">CATEGORIES!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AE$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">CATEGORIES!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AE$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">CATEGORIES!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AE$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">CATEGORIES!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AB$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">'CATEGORY MODEL'!$A$1:$AE$1</definedName>
     <definedName name="_RefDataAttribute" localSheetId="7">ATTRIBUTES!#REF!</definedName>
     <definedName name="_RefDataAttribute" localSheetId="8">[1]ATTRIBUTES!#REF!</definedName>
     <definedName name="_RefDataAttribute" localSheetId="6">#REF!</definedName>
@@ -60,20 +60,15 @@
     <definedName name="RefDataAttribute" localSheetId="6">#REF!</definedName>
     <definedName name="RefDataAttribute" localSheetId="4">#REF!</definedName>
     <definedName name="RefDataAttribute">#REF!</definedName>
-    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="7">ATTRIBUTES!$A$1:$AL$347</definedName>
-    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="7">ATTRIBUTES!$A$1:$AL$347</definedName>
+    <definedName name="Z_BF8E1B46_AD75_6E4F_85B7_6E6C75F2AAA2_.wvu.FilterData" localSheetId="7">ATTRIBUTES!$A$1:$AO$1</definedName>
+    <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="7">ATTRIBUTES!$A$1:$AO$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="322">
   <si>
     <t>PHYSICAL SHEET NAME</t>
   </si>
@@ -723,311 +718,329 @@
     <t>V1.5</t>
   </si>
   <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>List of Values</t>
-  </si>
-  <si>
-    <t>Product marketing</t>
-  </si>
-  <si>
-    <t>Appearance</t>
-  </si>
-  <si>
-    <t>Describes the appearance of the product (e.g. colour, material, structure) It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>sysmainproducttype</t>
-  </si>
-  <si>
-    <t>belongstomainproducttype</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Specifies what base a light bulb have. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>Comfort</t>
-  </si>
-  <si>
-    <t>Describes the height of a pillow. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>doors</t>
-  </si>
-  <si>
-    <t>Doors</t>
-  </si>
-  <si>
-    <t>Describes what kind of doors are included in the product. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Describes features/functions/benefits that make a product unique.</t>
-  </si>
-  <si>
-    <t>fillingmaterial</t>
-  </si>
-  <si>
-    <t>Filling material</t>
-  </si>
-  <si>
-    <t>Describes the filling material of the product.</t>
-  </si>
-  <si>
-    <t>filtercolour</t>
-  </si>
-  <si>
-    <t>Filter colour</t>
-  </si>
-  <si>
-    <t>Describes the colour of a product, for filter purpose. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>firmness</t>
-  </si>
-  <si>
-    <t>Firmness</t>
-  </si>
-  <si>
-    <t>Describes the firmness of a mattress. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>fitsin</t>
-  </si>
-  <si>
-    <t>Fits in</t>
-  </si>
-  <si>
-    <t>Used to explain what an integrated lightsource fits in.</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>Front</t>
-  </si>
-  <si>
-    <t>Describes the front included in the product. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Describes what functions the product has. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>kit</t>
-  </si>
-  <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>Describes is the product consists of more than only one product. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>lightfiltration</t>
-  </si>
-  <si>
-    <t>Light filtration</t>
-  </si>
-  <si>
-    <t>Describes how much light a product filters. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Describes the material of a product. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>materialorquality</t>
-  </si>
-  <si>
-    <t>Material/Quality</t>
-  </si>
-  <si>
-    <t>Describes the material/quality of the product. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>mattressmaterial</t>
-  </si>
-  <si>
-    <t>Mattress material</t>
-  </si>
-  <si>
-    <t>Describes what material a mattress is made of. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>numberofcookingzones</t>
-  </si>
-  <si>
-    <t>Number of cooking zones</t>
-  </si>
-  <si>
-    <t>How many cooking zones the product have.</t>
-  </si>
-  <si>
-    <t>numberofdrawers</t>
-  </si>
-  <si>
-    <t>Number of drawers</t>
-  </si>
-  <si>
-    <t>Describes the number of drawers in a chest of drawers. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>numberofseats</t>
-  </si>
-  <si>
-    <t>Number of seats</t>
-  </si>
-  <si>
-    <t>Describes the number of seats for a furniture. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>otherfeatures</t>
-  </si>
-  <si>
-    <t>Other features</t>
-  </si>
-  <si>
-    <t>Mainly information used for comparison tool.</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Describes what pattern a product have, if any. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>pimminimumtemperature</t>
-  </si>
-  <si>
-    <t>Minimum Temperature</t>
-  </si>
-  <si>
-    <t>Describes the minimum temperature for a plant. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>minimumtemperature</t>
-  </si>
-  <si>
-    <t>plantcare</t>
-  </si>
-  <si>
-    <t>Plant care</t>
-  </si>
-  <si>
-    <t>Describes how to take care of a plant.</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Describes the quality of a textile.</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>Describes the shape of a product. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>sleepingposition</t>
-  </si>
-  <si>
-    <t>Sleeping position</t>
-  </si>
-  <si>
-    <t>It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>storagefor</t>
-  </si>
-  <si>
-    <t>Storage for</t>
-  </si>
-  <si>
-    <t>Describes what the produt is made to store.</t>
-  </si>
-  <si>
-    <t>suitablefor</t>
-  </si>
-  <si>
-    <t>Suitable for</t>
-  </si>
-  <si>
-    <t>Describes if the product is approved/designed for a specific area or user group, for example outdoor or children.</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Describes the temperature level of a quilt or duvet. It has an automation rule connected.</t>
-  </si>
-  <si>
-    <t>themeormotif</t>
-  </si>
-  <si>
-    <t>Theme/Motif</t>
-  </si>
-  <si>
-    <t>Describes the motif/theme of a poster/picture/painting.</t>
-  </si>
-  <si>
-    <t>typeofproduct</t>
-  </si>
-  <si>
-    <t>Type of Product</t>
-  </si>
-  <si>
-    <t>Used for separating different type of products, within the same MPT.</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>deeplynested</t>
+  </si>
+  <si>
+    <t>REFERENCE DATA SORT TYPE</t>
+  </si>
+  <si>
+    <t>IGNORE MERGE?</t>
+  </si>
+  <si>
+    <t>MERGE AGGREGATE</t>
+  </si>
+  <si>
+    <t>MERGE SEQUENCE</t>
+  </si>
+  <si>
+    <t>REFERENCE DATA SORT FIELD</t>
+  </si>
+  <si>
+    <t>MERGE REPLACE</t>
+  </si>
+  <si>
+    <t>COLOR CODES</t>
+  </si>
+  <si>
+    <t>ADDITIONAL INSTRUCTION</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>PROCESS IMPACT</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>PMI_producthierarchy</t>
+  </si>
+  <si>
+    <t>PMI Product Hierarchy</t>
+  </si>
+  <si>
+    <t>PMI_CC</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PMI Conventional</t>
+  </si>
+  <si>
+    <t>PMI_CR</t>
+  </si>
+  <si>
+    <t>PMI Cross-Product Group</t>
+  </si>
+  <si>
+    <t>PMI_RR</t>
+  </si>
+  <si>
+    <t>PMI Reduced Risk Products</t>
+  </si>
+  <si>
+    <t>PMI_WH</t>
+  </si>
+  <si>
+    <t>PMI Wellness and Healthcare</t>
+  </si>
+  <si>
+    <t>PMI_accessorycharge</t>
+  </si>
+  <si>
+    <t>PMI_cprrpaccesory</t>
+  </si>
+  <si>
+    <t>PMI Accessory Charge</t>
+  </si>
+  <si>
+    <t>PMI_accessorycustomize</t>
+  </si>
+  <si>
+    <t>PMI Accessory Customize</t>
+  </si>
+  <si>
+    <t>PMI_accessorydispose</t>
+  </si>
+  <si>
+    <t>PMI_hnbaccesory</t>
+  </si>
+  <si>
+    <t>PMI Accessory Dispose</t>
+  </si>
+  <si>
+    <t>PMI_accessoryorganize</t>
+  </si>
+  <si>
+    <t>PMI Accessory Organize</t>
+  </si>
+  <si>
+    <t>PMI_accessoryprotect</t>
+  </si>
+  <si>
+    <t>PMI_vapeaccesory</t>
+  </si>
+  <si>
+    <t>PMI Accessory Protect</t>
+  </si>
+  <si>
+    <t>PMI_crossplatformrrp</t>
+  </si>
+  <si>
+    <t>PMI Accessory</t>
+  </si>
+  <si>
+    <t>PMI Cross Platform RRP</t>
+  </si>
+  <si>
+    <t>PMI_hnb</t>
+  </si>
+  <si>
+    <t>PMI_hnbconsumable</t>
+  </si>
+  <si>
+    <t>PMI Consumable</t>
+  </si>
+  <si>
+    <t>PMI_hnbdevice</t>
+  </si>
+  <si>
+    <t>PMI Device</t>
+  </si>
+  <si>
+    <t>PMI HnB</t>
+  </si>
+  <si>
+    <t>PMI_ncpclosedsystemsyskit</t>
+  </si>
+  <si>
+    <t>PMI_vapedevice</t>
+  </si>
+  <si>
+    <t>PMI NCP Closed System Sys Kit</t>
+  </si>
+  <si>
+    <t>PMI_ncpecigarettedisposable</t>
+  </si>
+  <si>
+    <t>PMI_vapeconsumable</t>
+  </si>
+  <si>
+    <t>PMI NCP eCigarette (Disposable)</t>
+  </si>
+  <si>
+    <t>PMI_ncpmainkit&amp;pods</t>
+  </si>
+  <si>
+    <t>PMI NCP Main Kit &amp; Pods</t>
+  </si>
+  <si>
+    <t>PMI_ncppods</t>
+  </si>
+  <si>
+    <t>PMI NCP Pods</t>
+  </si>
+  <si>
+    <t>PMI_nicotinecontainingproducteliquid</t>
+  </si>
+  <si>
+    <t>PMI Nicotine Containing Product e-Liquid</t>
+  </si>
+  <si>
+    <t>PMI_nicotinepouches</t>
+  </si>
+  <si>
+    <t>PMI_oralconsumable</t>
+  </si>
+  <si>
+    <t>PMI Nicotine Pouches</t>
+  </si>
+  <si>
+    <t>PMI_oral</t>
+  </si>
+  <si>
+    <t>PMI Oral</t>
+  </si>
+  <si>
+    <t>PMI_reducedriskproductshtpholder</t>
+  </si>
+  <si>
+    <t>PMI Reduced Risk Products HTP Holder</t>
+  </si>
+  <si>
+    <t>PMI_reducedriskproductshtppocketcharger</t>
+  </si>
+  <si>
+    <t>PMI Reduced Risk Products HTP Pocket Charger</t>
+  </si>
+  <si>
+    <t>PMI_reducedriskproductshtpusbcable</t>
+  </si>
+  <si>
+    <t>PMI Reduced Risk Products HTP USB Cable</t>
+  </si>
+  <si>
+    <t>PMI_reducedriskproductshtpusbpoweradapter</t>
+  </si>
+  <si>
+    <t>PMI Reduced Risk Products HTP USB Power Adapter</t>
+  </si>
+  <si>
+    <t>PMI_rrphtpcleaningsticks</t>
+  </si>
+  <si>
+    <t>PMI RRP HTP Cleaning Sticks</t>
+  </si>
+  <si>
+    <t>PMI_rrphtpcleaningtool</t>
+  </si>
+  <si>
+    <t>PMI RRP HTP Cleaning Tool</t>
+  </si>
+  <si>
+    <t>PMI_rrphtpkitwithholder</t>
+  </si>
+  <si>
+    <t>PMI RRP HTP Kit with holder</t>
+  </si>
+  <si>
+    <t>PMI_rrphtpsticks</t>
+  </si>
+  <si>
+    <t>PMI RRP HTP Sticks</t>
+  </si>
+  <si>
+    <t>PMI_vape</t>
+  </si>
+  <si>
+    <t>PMI Vape</t>
+  </si>
+  <si>
+    <t>uomWeight</t>
+  </si>
+  <si>
+    <t>uomLength</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>PMI_batteryLife</t>
+  </si>
+  <si>
+    <t>PMI_isBluetoothEnabled</t>
+  </si>
+  <si>
+    <t>PMI_depth</t>
+  </si>
+  <si>
+    <t>mm||cm||inch</t>
+  </si>
+  <si>
+    <t>PMI_deviceVersion</t>
+  </si>
+  <si>
+    <t>PMI_weight</t>
+  </si>
+  <si>
+    <t>g||mg||kg||lbs</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>PMI_length</t>
+  </si>
+  <si>
+    <t>PMI_isVibrationEnabled</t>
+  </si>
+  <si>
+    <t>PMI_width</t>
+  </si>
+  <si>
+    <t>PMI_productWarranty</t>
+  </si>
+  <si>
+    <t>PMI_aroma</t>
+  </si>
+  <si>
+    <t>PMI_cooling</t>
+  </si>
+  <si>
+    <t>PMI_flavorDescription</t>
+  </si>
+  <si>
+    <t>PMI_intensity</t>
+  </si>
+  <si>
+    <t>PMI_tastesLikeDescription</t>
+  </si>
+  <si>
+    <t>PMI_flavor</t>
+  </si>
+  <si>
+    <t>productflavor</t>
+  </si>
+  <si>
+    <t>PMI_body</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1098,14 +1111,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF091E42"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1170,6 +1177,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF2E75B6"/>
         <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1263,38 +1276,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1307,7 +1319,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1321,15 +1332,91 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1415,42 +1502,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1185120</xdr:colOff>
+      <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
+        <xdr:cNvPr id="3" name="Graphic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F7F8B0-CE66-41A3-8865-E6E4A2C8C2F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113400" y="76320"/>
-          <a:ext cx="3262320" cy="447480"/>
+          <a:off x="571500" y="152400"/>
+          <a:ext cx="2590800" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1459,7 +1556,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Dropdownlist"/>
@@ -1756,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1768,43 +1865,46 @@
     <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" s="21" customFormat="1">
+      <c r="A1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>112</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" t="s">
@@ -1819,18 +1919,21 @@
       <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>113</v>
+      <c r="H2" t="s">
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.8">
-      <c r="B3" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" t="s">
         <v>88</v>
       </c>
       <c r="D3" t="s">
@@ -1842,18 +1945,21 @@
       <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" t="s">
         <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.8">
-      <c r="B4" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
@@ -1865,534 +1971,570 @@
       <c r="G4" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
         <v>115</v>
       </c>
-      <c r="I4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.8">
-      <c r="B5" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.8">
-      <c r="B6" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.8">
-      <c r="B7" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.8">
-      <c r="B8" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>119</v>
-      </c>
       <c r="I8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.8">
-      <c r="B9" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>120</v>
+      <c r="H9" t="s">
+        <v>142</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
       <c r="C10" t="s">
         <v>99</v>
       </c>
+      <c r="H10" t="s">
+        <v>135</v>
+      </c>
       <c r="I10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
+      <c r="C11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" t="s">
+        <v>194</v>
+      </c>
       <c r="I11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
       <c r="I12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="H13" t="s">
+        <v>118</v>
+      </c>
       <c r="I13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="H14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="H15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9">
+      <c r="I25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9">
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9">
+      <c r="I28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9">
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="I30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="I31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="I14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="I15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="I16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9">
-      <c r="I18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9">
-      <c r="I19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9">
-      <c r="I20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9">
-      <c r="I21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9">
-      <c r="I22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9">
-      <c r="I23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9">
-      <c r="I24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9">
-      <c r="I25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9">
-      <c r="I26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9">
-      <c r="I27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9">
-      <c r="I28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9">
-      <c r="I29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9">
-      <c r="I30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9">
-      <c r="I31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9">
+    <row r="32" spans="8:9">
       <c r="I32" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="9:9">
       <c r="I41" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="9:9">
       <c r="I51" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="9:9">
       <c r="I61" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="9:9">
       <c r="I62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="9:9">
       <c r="I63" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="9:9">
       <c r="I64" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="9:9">
       <c r="I65" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="9:9">
       <c r="I67" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="9:9">
       <c r="I69" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="9:9">
       <c r="I70" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="9:9">
       <c r="I71" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="9:9">
       <c r="I72" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="9:9">
       <c r="I73" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="9:9">
       <c r="I74" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="9:9">
       <c r="I76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="9:9">
       <c r="I77" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="9:9">
       <c r="I78" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="9:9">
       <c r="I79" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="9:9">
       <c r="I80" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="9:9">
       <c r="I81" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="9:9">
       <c r="I82" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="9:9">
       <c r="I83" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="9:9">
       <c r="I84" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="9:9">
       <c r="I85" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="9:9">
       <c r="I86" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="9:9">
       <c r="I87" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="9:9">
       <c r="I88" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="9:9">
       <c r="I89" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="9:9">
       <c r="I91" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="9:9">
       <c r="I92" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="9:9">
       <c r="I93" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="9:9">
       <c r="I94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="9:9">
       <c r="I95" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="9:9">
       <c r="I96" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -2403,58 +2545,63 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.3984375"/>
-    <col min="2" max="2" width="18.59765625"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.09765625"/>
-    <col min="6" max="6" width="23"/>
-    <col min="7" max="7" width="11.19921875"/>
-    <col min="8" max="8" width="19.5"/>
-    <col min="9" max="9" width="15.5"/>
-    <col min="10" max="10" width="19.5"/>
-    <col min="11" max="11" width="11.69921875"/>
-    <col min="12" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17"/>
-    <col min="16" max="17" width="18.59765625"/>
-    <col min="18" max="18" width="16.5"/>
-    <col min="19" max="19" width="22.59765625"/>
-    <col min="20" max="20" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.8984375"/>
-    <col min="23" max="23" width="19.19921875"/>
-    <col min="24" max="24" width="14.3984375"/>
-    <col min="25" max="25" width="25"/>
-    <col min="26" max="26" width="11.69921875"/>
-    <col min="27" max="27" width="22.09765625"/>
-    <col min="28" max="28" width="11.8984375"/>
-    <col min="29" max="29" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="1027" width="9.59765625"/>
+    <col min="1" max="1" width="9.3984375" style="37"/>
+    <col min="2" max="2" width="18.59765625" style="37"/>
+    <col min="3" max="3" width="17.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" style="37"/>
+    <col min="6" max="6" width="23" style="37"/>
+    <col min="7" max="7" width="11.19921875" style="37"/>
+    <col min="8" max="8" width="19.5" style="37"/>
+    <col min="9" max="9" width="15.5" style="37"/>
+    <col min="10" max="10" width="19.5" style="37"/>
+    <col min="11" max="11" width="18.3984375" style="37" customWidth="1"/>
+    <col min="12" max="12" width="26.69921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.69921875" style="37"/>
+    <col min="15" max="15" width="11.59765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.8984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.09765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="37"/>
+    <col min="19" max="20" width="18.59765625" style="37"/>
+    <col min="21" max="21" width="16.5" style="37"/>
+    <col min="22" max="22" width="22.59765625" style="37"/>
+    <col min="23" max="23" width="16.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.69921875" style="37" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.8984375" style="37"/>
+    <col min="26" max="26" width="19.19921875" style="37"/>
+    <col min="27" max="27" width="14.3984375" style="37"/>
+    <col min="28" max="28" width="25" style="37"/>
+    <col min="29" max="29" width="11.69921875" style="37"/>
+    <col min="30" max="30" width="22.09765625" style="37"/>
+    <col min="31" max="31" width="11.8984375" style="37"/>
+    <col min="32" max="32" width="24.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.5" style="37" customWidth="1"/>
+    <col min="39" max="39" width="20.59765625" style="37" customWidth="1"/>
+    <col min="40" max="40" width="29.69921875" style="37" customWidth="1"/>
+    <col min="41" max="41" width="16.69921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="45" max="1031" width="9.59765625" style="37"/>
+    <col min="1032" max="16384" width="8.796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:41" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2486,80 +2633,930 @@
         <v>62</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="Q1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="AL1" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO1" s="36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.6">
+      <c r="B2" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.6">
+      <c r="B3" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="15.6">
+      <c r="B4" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE4" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15.6">
+      <c r="B5" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="15.6">
+      <c r="B6" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE6" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="15.6">
+      <c r="B7" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE7" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15.6">
+      <c r="B8" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="15.6">
+      <c r="B9" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE9" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="15.6">
+      <c r="B10" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15.6">
+      <c r="B11" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="15.6">
+      <c r="B12" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15.6">
+      <c r="B13" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE13" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="15.6">
+      <c r="B14" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="15.6">
+      <c r="B15" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE15" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="15.6">
+      <c r="B16" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE16" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="15.6">
+      <c r="B17" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="15.6">
+      <c r="B18" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE18" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="15.6">
+      <c r="B19" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="15.6">
+      <c r="B20" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" ht="15.6">
+      <c r="B21" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" ht="15.6">
+      <c r="B22" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" ht="15.6">
+      <c r="B23" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" ht="15.6">
+      <c r="B24" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" ht="15.6">
+      <c r="B25" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="V25" s="37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" ht="15.6">
+      <c r="B26" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" ht="15.6">
+      <c r="B27" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" ht="15.6">
+      <c r="B28" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="15.6">
+      <c r="B29" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" ht="15.6">
+      <c r="B30" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" ht="15.6">
+      <c r="B31" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" ht="15.6">
+      <c r="B32" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="V32" s="37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" ht="15.6">
+      <c r="B33" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" ht="15.6">
+      <c r="B34" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" ht="15.6">
+      <c r="B35" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" ht="15.6">
+      <c r="B36" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" ht="15.6">
+      <c r="B37" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" ht="15.6">
+      <c r="B38" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" ht="15.6">
+      <c r="B39" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="V39" s="37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" ht="15.6">
+      <c r="B40" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" ht="15.6">
+      <c r="B41" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" ht="15.6">
+      <c r="B42" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" ht="15.6">
+      <c r="B43" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P43" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q43" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE43" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" ht="15.6">
+      <c r="B44" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" ht="15.6">
+      <c r="B45" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="P45" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q45" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE45" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" ht="15.6">
+      <c r="B46" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P46" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q46" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE46" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" ht="15.6">
+      <c r="B47" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" ht="15.6">
+      <c r="B48" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P48" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q48" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE48" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="15.6">
+      <c r="B49" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:AO49" xr:uid="{15A22B13-D93D-426E-B605-CF090E0B1F10}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO49">
+      <sortCondition sortBy="cellColor" ref="B1:B49" dxfId="2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <extLst>
@@ -2571,11 +3568,11 @@
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{147D37AC-2421-48BF-B8F7-C32E68878147}">
           <x14:formula1>
             <xm:f>Dropdownlist!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Y454:Y1048576 AA454:AA1048576 O454:Q1048576</xm:sqref>
+          <xm:sqref>R2:T1048576 AB2:AB1048576 AD2:AD1048576 AL2:AM1048576 L2:L1048576 AO2:AO1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2699,13 +3696,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A4:F13"/>
+  <dimension ref="A4:I13"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.5"/>
     <col min="2" max="2" width="26.69921875"/>
@@ -2713,10 +3710,13 @@
     <col min="4" max="4" width="12.19921875"/>
     <col min="5" max="5" width="25.19921875"/>
     <col min="6" max="6" width="11.8984375"/>
-    <col min="7" max="1025" width="9.59765625"/>
+    <col min="7" max="7" width="9.59765625"/>
+    <col min="8" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="9.59765625"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -2732,8 +3732,14 @@
       <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -2749,15 +3755,21 @@
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2767,7 +3779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
@@ -2784,7 +3796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9" ht="21.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
@@ -2801,7 +3813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9" ht="21.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2818,7 +3830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9" ht="21.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>109</v>
@@ -2833,7 +3845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9" ht="21.75" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -2848,13 +3860,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9" ht="21.75" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
@@ -2864,27 +3876,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DED9AED8-C587-43AF-825F-B8A6B19BEB86}">
+          <x14:formula1>
+            <xm:f>Dropdownlist!$J$2:$J$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="26.5"/>
-    <col min="3" max="3" width="27.09765625"/>
-    <col min="4" max="4" width="11.8984375"/>
-    <col min="5" max="1025" width="9.59765625"/>
+    <col min="1" max="1" width="10" style="37" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="37"/>
+    <col min="3" max="3" width="27.09765625" style="37"/>
+    <col min="4" max="4" width="11.8984375" style="37"/>
+    <col min="5" max="1025" width="9.59765625" style="37"/>
+    <col min="1026" max="16384" width="8.796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2898,8 +3923,20 @@
         <v>35</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="B2" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
+      <sortCondition sortBy="cellColor" ref="B1:B2" dxfId="8"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
@@ -2922,10 +3959,10 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.3984375" customWidth="1"/>
     <col min="2" max="2" width="19.69921875" customWidth="1"/>
@@ -2934,14 +3971,14 @@
     <col min="5" max="5" width="26.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>111</v>
       </c>
       <c r="D1" s="16" t="s">
@@ -2955,75 +3992,669 @@
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="37" customWidth="1"/>
+    <col min="3" max="3" width="14" style="37"/>
+    <col min="4" max="4" width="26.5" style="37" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="40" style="37" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="37" customWidth="1"/>
+    <col min="8" max="1025" width="9.59765625" style="37"/>
+    <col min="1026" max="16384" width="8.796875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="B2" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="B3" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6">
+      <c r="B4" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="B5" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="B6" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="B7" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="B8" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="B9" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="B10" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
+      <c r="B11" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="B12" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
+      <c r="B13" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6">
+      <c r="B14" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6">
+      <c r="B15" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6">
+      <c r="B16" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.6">
+      <c r="B17" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.6">
+      <c r="B18" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.6">
+      <c r="B19" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.6">
+      <c r="B20" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.6">
+      <c r="B21" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.6">
+      <c r="B22" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.6">
+      <c r="B23" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.6">
+      <c r="B24" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.6">
+      <c r="B25" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.6">
+      <c r="B26" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.6">
+      <c r="B27" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.6">
+      <c r="B28" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.6">
+      <c r="B29" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.6">
+      <c r="B30" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.6">
+      <c r="B31" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.6">
+      <c r="B32" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.6">
+      <c r="B33" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.6">
+      <c r="B34" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.6">
+      <c r="B35" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.6">
+      <c r="B36" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G36" xr:uid="{00000000-0009-0000-0000-000005000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G36">
+      <sortCondition sortBy="cellColor" ref="B1:B36" dxfId="5"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Dropdownlist!$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$H$2:$H$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="14"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="9.59765625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3032,10 +4663,10 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.3984375" customWidth="1"/>
     <col min="2" max="2" width="19.69921875" customWidth="1"/>
@@ -3044,14 +4675,14 @@
     <col min="5" max="5" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>111</v>
       </c>
       <c r="D1" s="16" t="s">
@@ -3065,40 +4696,22 @@
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$I$2:$I$98</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B19" sqref="B19"/>
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.59765625" style="22" customWidth="1"/>
     <col min="2" max="2" width="21.8984375" style="22" customWidth="1"/>
@@ -3115,55 +4728,62 @@
     <col min="14" max="15" width="19.09765625" style="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.69921875" style="22" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="35" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.3984375" style="23" customWidth="1"/>
+    <col min="18" max="18" width="17.3984375" style="22" customWidth="1"/>
     <col min="19" max="19" width="22.09765625" style="22" customWidth="1"/>
     <col min="20" max="20" width="27.59765625" style="22" customWidth="1"/>
     <col min="21" max="21" width="23.8984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.19921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.8984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.09765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="18.5" style="22" customWidth="1"/>
-    <col min="30" max="30" width="18.8984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.09765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="22"/>
+    <col min="22" max="22" width="32.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.09765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.09765625" style="22" customWidth="1"/>
+    <col min="25" max="25" width="16.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.8984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.09765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="18.5" style="22" customWidth="1"/>
+    <col min="33" max="33" width="18.8984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.09765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19" style="22" customWidth="1"/>
+    <col min="46" max="46" width="19.69921875" style="22" customWidth="1"/>
+    <col min="47" max="47" width="24.19921875" style="22" customWidth="1"/>
+    <col min="48" max="48" width="16.69921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:48" s="23" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>42</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -3175,1225 +4795,137 @@
       <c r="K1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="Z1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="AA1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="AB1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AC1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:41">
-      <c r="B2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AS1" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AT1" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="AU1" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="S2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AV1" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="AK2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41">
-      <c r="B3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S3" t="s">
-        <v>224</v>
-      </c>
-      <c r="T3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41">
-      <c r="B4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>229</v>
-      </c>
-      <c r="S4" t="s">
-        <v>227</v>
-      </c>
-      <c r="T4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>232</v>
-      </c>
-      <c r="S5" t="s">
-        <v>230</v>
-      </c>
-      <c r="T5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="B6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" t="s">
-        <v>235</v>
-      </c>
-      <c r="S6" t="s">
-        <v>233</v>
-      </c>
-      <c r="T6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="B7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>238</v>
-      </c>
-      <c r="S7" t="s">
-        <v>236</v>
-      </c>
-      <c r="T7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="B8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" t="s">
-        <v>241</v>
-      </c>
-      <c r="S8" t="s">
-        <v>239</v>
-      </c>
-      <c r="T8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="B9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" t="s">
-        <v>244</v>
-      </c>
-      <c r="S9" t="s">
-        <v>242</v>
-      </c>
-      <c r="T9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41">
-      <c r="B10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" t="s">
-        <v>246</v>
-      </c>
-      <c r="H10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" t="s">
-        <v>247</v>
-      </c>
-      <c r="S10" t="s">
-        <v>245</v>
-      </c>
-      <c r="T10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41">
-      <c r="B11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" t="s">
-        <v>249</v>
-      </c>
-      <c r="H11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" t="s">
-        <v>250</v>
-      </c>
-      <c r="S11" t="s">
-        <v>248</v>
-      </c>
-      <c r="T11" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41">
-      <c r="B12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" t="s">
-        <v>253</v>
-      </c>
-      <c r="S12" t="s">
-        <v>251</v>
-      </c>
-      <c r="T12" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41">
-      <c r="B13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" t="s">
-        <v>256</v>
-      </c>
-      <c r="S13" t="s">
-        <v>254</v>
-      </c>
-      <c r="T13" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41">
-      <c r="B14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" t="s">
-        <v>259</v>
-      </c>
-      <c r="S14" t="s">
-        <v>257</v>
-      </c>
-      <c r="T14" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41">
-      <c r="B15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G15" t="s">
-        <v>261</v>
-      </c>
-      <c r="H15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" t="s">
-        <v>262</v>
-      </c>
-      <c r="S15" t="s">
-        <v>260</v>
-      </c>
-      <c r="T15" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
-      <c r="B16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" t="s">
-        <v>265</v>
-      </c>
-      <c r="S16" t="s">
-        <v>263</v>
-      </c>
-      <c r="T16" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="2:37">
-      <c r="B17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" t="s">
-        <v>268</v>
-      </c>
-      <c r="S17" t="s">
-        <v>266</v>
-      </c>
-      <c r="T17" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="2:37">
-      <c r="B18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" t="s">
-        <v>270</v>
-      </c>
-      <c r="H18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R18" t="s">
-        <v>271</v>
-      </c>
-      <c r="S18" t="s">
-        <v>269</v>
-      </c>
-      <c r="T18" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="2:37">
-      <c r="B19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" t="s">
-        <v>274</v>
-      </c>
-      <c r="S19" t="s">
-        <v>272</v>
-      </c>
-      <c r="T19" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="2:37">
-      <c r="B20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D20" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" t="s">
-        <v>276</v>
-      </c>
-      <c r="H20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" t="s">
-        <v>277</v>
-      </c>
-      <c r="S20" t="s">
-        <v>275</v>
-      </c>
-      <c r="T20" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="2:37">
-      <c r="B21" t="s">
-        <v>278</v>
-      </c>
-      <c r="D21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" t="s">
-        <v>279</v>
-      </c>
-      <c r="H21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" t="s">
-        <v>280</v>
-      </c>
-      <c r="S21" t="s">
-        <v>278</v>
-      </c>
-      <c r="T21" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="2:37">
-      <c r="B22" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" t="s">
-        <v>282</v>
-      </c>
-      <c r="H22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22" t="s">
-        <v>283</v>
-      </c>
-      <c r="S22" t="s">
-        <v>281</v>
-      </c>
-      <c r="T22" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="2:37">
-      <c r="B23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F23" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23" t="s">
-        <v>286</v>
-      </c>
-      <c r="S23" t="s">
-        <v>287</v>
-      </c>
-      <c r="T23" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="2:37">
-      <c r="B24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" t="s">
-        <v>217</v>
-      </c>
-      <c r="F24" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R24" t="s">
-        <v>290</v>
-      </c>
-      <c r="S24" t="s">
-        <v>288</v>
-      </c>
-      <c r="T24" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="2:37">
-      <c r="B25" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" t="s">
-        <v>292</v>
-      </c>
-      <c r="H25" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" t="s">
-        <v>293</v>
-      </c>
-      <c r="S25" t="s">
-        <v>291</v>
-      </c>
-      <c r="T25" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="2:37">
-      <c r="B26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D26" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" t="s">
-        <v>295</v>
-      </c>
-      <c r="H26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26" t="s">
-        <v>296</v>
-      </c>
-      <c r="S26" t="s">
-        <v>294</v>
-      </c>
-      <c r="T26" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="2:37">
-      <c r="B27" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" t="s">
-        <v>298</v>
-      </c>
-      <c r="H27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" t="s">
-        <v>299</v>
-      </c>
-      <c r="S27" t="s">
-        <v>297</v>
-      </c>
-      <c r="T27" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="2:37">
-      <c r="B28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D28" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" t="s">
-        <v>218</v>
-      </c>
-      <c r="G28" t="s">
-        <v>301</v>
-      </c>
-      <c r="H28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" t="s">
-        <v>302</v>
-      </c>
-      <c r="S28" t="s">
-        <v>300</v>
-      </c>
-      <c r="T28" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="2:37">
-      <c r="B29" t="s">
-        <v>303</v>
-      </c>
-      <c r="D29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" t="s">
-        <v>218</v>
-      </c>
-      <c r="G29" t="s">
-        <v>304</v>
-      </c>
-      <c r="H29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" t="s">
-        <v>305</v>
-      </c>
-      <c r="S29" t="s">
-        <v>303</v>
-      </c>
-      <c r="T29" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="2:37">
-      <c r="B30" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" t="s">
-        <v>218</v>
-      </c>
-      <c r="G30" t="s">
-        <v>307</v>
-      </c>
-      <c r="H30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" t="s">
-        <v>308</v>
-      </c>
-      <c r="S30" t="s">
-        <v>306</v>
-      </c>
-      <c r="T30" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="2:37">
-      <c r="B31" t="s">
-        <v>309</v>
-      </c>
-      <c r="D31" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" t="s">
-        <v>310</v>
-      </c>
-      <c r="H31" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R31" t="s">
-        <v>311</v>
-      </c>
-      <c r="S31" t="s">
-        <v>309</v>
-      </c>
-      <c r="T31" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="2:37">
-      <c r="B32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D32" t="s">
-        <v>217</v>
-      </c>
-      <c r="F32" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" t="s">
-        <v>313</v>
-      </c>
-      <c r="H32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" t="s">
-        <v>314</v>
-      </c>
-      <c r="S32" t="s">
-        <v>315</v>
-      </c>
-      <c r="T32" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>223</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:AV1" xr:uid="{B5261B3E-9548-4AD1-88D3-C77A07968C97}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$B$2:$B$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>D33:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$G$2:$G$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>P33:P1048576 Z33:Z1048576 AF33:AF1048576 AH33:AH1048576 I33:K1048576 E33:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000003000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>M33:M1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$C$2:$C$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>H33:H1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.3984375" style="22" customWidth="1"/>
     <col min="2" max="3" width="21.8984375" style="22" customWidth="1"/>
@@ -4403,81 +4935,28 @@
     <col min="7" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
-          <x14:formula1>
-            <xm:f>Dropdownlist!$H$2:$H$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>